--- a/Mifos Automation Excels/Client/2591-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-LATE-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2591-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-LATE-Newcreateloan2.xlsx
@@ -597,10 +597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -634,25 +634,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>403.02</v>
+        <v>402.79</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>9596.98</v>
+        <v>9597.2099999999991</v>
       </c>
       <c r="F2" s="10">
-        <v>1275.44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1275.67</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>574.46</v>
       </c>
@@ -672,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>0</v>
       </c>
@@ -692,12 +693,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="B5" s="7">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -722,7 +723,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +821,7 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -853,16 +854,16 @@
         <v>887.72</v>
       </c>
       <c r="L3" s="7">
-        <v>476.99</v>
+        <v>476.76</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
       </c>
       <c r="N3" s="7">
-        <v>476.99</v>
+        <v>476.76</v>
       </c>
       <c r="P3" s="7">
-        <v>410.73</v>
+        <v>410.96</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -917,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="K5" s="7">
-        <v>887.72</v>
+        <v>887.95</v>
       </c>
       <c r="L5" s="7">
-        <v>23.01</v>
+        <v>23.24</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1376,7 +1377,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A2:XFD8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1429,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>176</v>
+        <v>3578</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1462,7 +1463,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>175</v>
+        <v>3577</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1474,7 +1475,7 @@
         <v>34</v>
       </c>
       <c r="E3" s="7">
-        <v>23.01</v>
+        <v>23.24</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -1486,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
@@ -1496,7 +1497,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>170</v>
+        <v>3575</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1505,32 +1506,32 @@
         <v>42064</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9">
-        <v>5000</v>
+        <v>33</v>
+      </c>
+      <c r="E4" s="7">
+        <v>500</v>
       </c>
       <c r="F4" s="7">
-        <v>0</v>
+        <v>402.79</v>
       </c>
       <c r="G4" s="7">
-        <v>0</v>
+        <v>96.98</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>9596.98</v>
+        <v>0.23</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>169</v>
+        <v>3574</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
@@ -1539,16 +1540,16 @@
         <v>42064</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="7">
-        <v>500</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="9">
+        <v>5000</v>
       </c>
       <c r="F5" s="7">
-        <v>403.02</v>
+        <v>0</v>
       </c>
       <c r="G5" s="7">
-        <v>96.98</v>
+        <v>0</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1556,15 +1557,15 @@
       <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="10">
-        <v>4596.9799999999996</v>
+      <c r="J5" s="9">
+        <v>10000</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>174</v>
+        <v>3576</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>27</v>
@@ -1598,7 +1599,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>168</v>
+        <v>3572</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/2591-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-LATE-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2591-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-LATE-Newcreateloan2.xlsx
@@ -128,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +143,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -227,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -251,6 +259,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,10 +611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A8" sqref="A8:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,23 +653,23 @@
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>402.79</v>
+        <v>402.05</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>9597.2099999999991</v>
+        <v>9597.9500000000007</v>
       </c>
       <c r="F2" s="10">
-        <v>1275.67</v>
+        <v>1276.4100000000001</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>574.46</v>
+        <v>574.47</v>
       </c>
       <c r="B3" s="7">
         <v>96.98</v>
@@ -667,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>477.48</v>
+        <v>477.49</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -695,10 +709,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>0.23</v>
+        <v>0.97</v>
       </c>
       <c r="B5" s="7">
-        <v>0.23</v>
+        <v>0.97</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -712,6 +726,36 @@
       <c r="F5" s="7">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -723,7 +767,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +865,7 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -848,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="K3" s="7">
-        <v>887.72</v>
+        <v>888.46</v>
       </c>
       <c r="L3" s="7">
         <v>476.76</v>
@@ -860,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="N3" s="7">
-        <v>476.76</v>
+        <v>476.02</v>
       </c>
       <c r="P3" s="7">
-        <v>410.96</v>
+        <v>411.7</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -949,13 +993,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>789.91</v>
+        <v>789.9</v>
       </c>
       <c r="G6" s="10">
-        <v>7531.63</v>
+        <v>7531.64</v>
       </c>
       <c r="H6" s="7">
-        <v>97.81</v>
+        <v>97.82</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -995,7 +1039,7 @@
         <v>813.44</v>
       </c>
       <c r="G7" s="10">
-        <v>6718.19</v>
+        <v>6718.2</v>
       </c>
       <c r="H7" s="7">
         <v>74.28</v>
@@ -1038,7 +1082,7 @@
         <v>819.25</v>
       </c>
       <c r="G8" s="10">
-        <v>5898.94</v>
+        <v>5898.95</v>
       </c>
       <c r="H8" s="7">
         <v>68.47</v>
@@ -1081,7 +1125,7 @@
         <v>829.54</v>
       </c>
       <c r="G9" s="10">
-        <v>5069.3999999999996</v>
+        <v>5069.41</v>
       </c>
       <c r="H9" s="7">
         <v>58.18</v>
@@ -1124,7 +1168,7 @@
         <v>836.05</v>
       </c>
       <c r="G10" s="10">
-        <v>4233.3500000000004</v>
+        <v>4233.3599999999997</v>
       </c>
       <c r="H10" s="7">
         <v>51.67</v>
@@ -1167,7 +1211,7 @@
         <v>844.57</v>
       </c>
       <c r="G11" s="10">
-        <v>3388.78</v>
+        <v>3388.79</v>
       </c>
       <c r="H11" s="7">
         <v>43.15</v>
@@ -1210,7 +1254,7 @@
         <v>854.3</v>
       </c>
       <c r="G12" s="10">
-        <v>2534.48</v>
+        <v>2534.4899999999998</v>
       </c>
       <c r="H12" s="7">
         <v>33.42</v>
@@ -1253,7 +1297,7 @@
         <v>861.89</v>
       </c>
       <c r="G13" s="10">
-        <v>1672.59</v>
+        <v>1672.6</v>
       </c>
       <c r="H13" s="7">
         <v>25.83</v>
@@ -1296,7 +1340,7 @@
         <v>871.22</v>
       </c>
       <c r="G14" s="7">
-        <v>801.37</v>
+        <v>801.38</v>
       </c>
       <c r="H14" s="7">
         <v>16.5</v>
@@ -1336,7 +1380,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7">
-        <v>801.37</v>
+        <v>801.38</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1351,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="7">
-        <v>809.54</v>
+        <v>809.55</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
@@ -1363,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="7">
-        <v>809.54</v>
+        <v>809.55</v>
       </c>
     </row>
   </sheetData>
@@ -1377,7 +1421,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1473,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>3578</v>
+        <v>50</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1441,13 +1485,13 @@
         <v>34</v>
       </c>
       <c r="E2" s="7">
-        <v>97.81</v>
+        <v>97.82</v>
       </c>
       <c r="F2" s="7">
         <v>0</v>
       </c>
       <c r="G2" s="7">
-        <v>97.81</v>
+        <v>97.82</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -1463,7 +1507,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>3577</v>
+        <v>49</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1497,7 +1541,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>3575</v>
+        <v>44</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1512,7 +1556,7 @@
         <v>500</v>
       </c>
       <c r="F4" s="7">
-        <v>402.79</v>
+        <v>402.05</v>
       </c>
       <c r="G4" s="7">
         <v>96.98</v>
@@ -1521,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>0.23</v>
+        <v>0.97</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -1531,7 +1575,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>3574</v>
+        <v>43</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
@@ -1565,7 +1609,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>3576</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>27</v>
@@ -1577,7 +1621,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="7">
-        <v>73.97</v>
+        <v>74.709999999999994</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -1589,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="J6" s="7">
         <v>0</v>
@@ -1599,7 +1643,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>3572</v>
+        <v>39</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/2591-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-LATE-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2591-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-LATE-Newcreateloan2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -127,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,6 +281,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -323,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,9 +364,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,6 +416,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -764,10 +806,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,12 +827,13 @@
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -830,17 +873,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -865,9 +909,10 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -903,14 +948,15 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
         <v>476.02</v>
       </c>
-      <c r="P3" s="7">
+      <c r="Q3" s="7">
         <v>411.7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -935,9 +981,10 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -973,14 +1020,15 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
         <v>864.71</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1016,14 +1064,15 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1059,14 +1108,15 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1102,14 +1152,15 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1145,14 +1196,15 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1188,14 +1240,15 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1231,14 +1284,15 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1274,14 +1328,15 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1317,14 +1372,15 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1360,14 +1416,15 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1403,10 +1460,11 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
         <v>809.55</v>
       </c>
     </row>
@@ -1420,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
